--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/任务配置表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/任务配置表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3E1DD2-D002-48AA-BF1E-47D0786913F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC221A9B-C1A5-4110-AA54-283A9EF72F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="0" windowWidth="13500" windowHeight="20835" tabRatio="828" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26070" yWindow="1455" windowWidth="13500" windowHeight="16545" tabRatio="828" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="2" r:id="rId1"/>
